--- a/Estadistica Proyectos/Relacion de proyectos programados 2020.xlsx
+++ b/Estadistica Proyectos/Relacion de proyectos programados 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B97F492-50BE-4FFC-8A91-AFA6564F3CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52E2045-D88A-4365-960A-6A2346D68E21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2400" windowWidth="22308" windowHeight="12756" xr2:uid="{56B50177-F433-462D-A4E2-CC59DBAF2594}"/>
+    <workbookView xWindow="720" yWindow="852" windowWidth="30000" windowHeight="16428" xr2:uid="{56B50177-F433-462D-A4E2-CC59DBAF2594}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -516,6 +516,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,36 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,7 +891,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H42"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,22 +925,22 @@
       <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="32">
@@ -952,17 +952,17 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
@@ -984,10 +984,10 @@
       <c r="M3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="33"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
@@ -1018,7 +1018,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2">
         <v>45081</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2">
         <v>45085</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="2">
         <v>45083</v>
       </c>
@@ -1089,21 +1089,21 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2">
         <v>45084</v>
       </c>
@@ -1116,21 +1116,21 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
       <c r="N8" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2">
         <v>45087</v>
       </c>
@@ -1143,21 +1143,21 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="35"/>
       <c r="N9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
@@ -1186,7 +1186,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="2">
         <v>2284093</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2">
         <v>108724</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2">
         <v>108789</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2">
         <v>108798</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2">
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2">
         <v>49449</v>
       </c>
@@ -1354,7 +1354,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="2">
         <v>46388</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="2">
         <v>109172</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="2">
         <v>49378</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="2">
         <v>49445</v>
       </c>
@@ -1447,21 +1447,21 @@
       <c r="D20" s="12"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="2">
         <v>49426</v>
       </c>
@@ -1471,21 +1471,21 @@
       <c r="D21" s="12"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="2">
         <v>49403</v>
       </c>
@@ -1495,21 +1495,21 @@
       <c r="D22" s="12"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="2">
         <v>49417</v>
       </c>
@@ -1519,21 +1519,21 @@
       <c r="D23" s="12"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="2">
         <v>49396</v>
       </c>
@@ -1543,21 +1543,21 @@
       <c r="D24" s="12"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
       <c r="N24" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2">
         <v>91036</v>
       </c>
@@ -1570,21 +1570,21 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -1613,7 +1613,7 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2">
         <v>49555</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:15" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="13">
         <v>49557</v>
       </c>
@@ -1650,21 +1650,21 @@
       <c r="D28" s="12"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="17">
@@ -1679,20 +1679,20 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
       <c r="N29" s="20"/>
       <c r="O29" s="19"/>
     </row>
     <row r="30" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="17">
         <v>49568</v>
       </c>
@@ -1709,21 +1709,21 @@
       <c r="F30" s="5">
         <v>44057</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="17">
         <v>49570</v>
       </c>
@@ -1733,19 +1733,19 @@
       <c r="D31" s="12"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="17">
         <v>49577</v>
       </c>
@@ -1755,19 +1755,19 @@
       <c r="D32" s="12"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="17">
         <v>91133</v>
       </c>
@@ -1777,19 +1777,19 @@
       <c r="D33" s="12"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="15">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="13">
         <v>48932</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="21">
         <v>107108</v>
       </c>
@@ -1857,19 +1857,19 @@
       <c r="D36" s="12"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="21">
         <v>107122</v>
       </c>
@@ -1879,19 +1879,19 @@
       <c r="D37" s="12"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="35"/>
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="21">
         <v>107115</v>
       </c>
@@ -1901,15 +1901,15 @@
       <c r="D38" s="12"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,21 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G31:M31"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="F2:F3"/>
@@ -1959,23 +1967,15 @@
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A33"/>
-    <mergeCell ref="G31:M31"/>
-    <mergeCell ref="G32:M32"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="G25:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G4:M4">
